--- a/data/input/SimulatorScenarios.xlsx
+++ b/data/input/SimulatorScenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\ABMSimulation\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonWorkspace\ABMSimulationTool\ABMSim\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B07E62-110C-42AD-A1D8-2E6B0F2554B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1193408-31A6-4BA7-9E93-1C9A55FCD61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -34,32 +34,38 @@
     <t>agent_num</t>
   </si>
   <si>
-    <t>initial_infected_percentage</t>
+    <t>network_type</t>
+  </si>
+  <si>
+    <t>network_param_p</t>
+  </si>
+  <si>
+    <t>erdos_renyi_graph</t>
+  </si>
+  <si>
+    <t>network_param_directed</t>
+  </si>
+  <si>
+    <t>seed_size</t>
+  </si>
+  <si>
+    <t>influence_msg</t>
   </si>
   <si>
     <t>infection_prob</t>
   </si>
   <si>
-    <t>network_type</t>
-  </si>
-  <si>
-    <t>network_param_p</t>
-  </si>
-  <si>
-    <t>erdos_renyi_graph</t>
-  </si>
-  <si>
-    <t>network_param_directed</t>
-  </si>
-  <si>
-    <t>item_num</t>
+    <t>Jay Chou's latest song is a mesmerizing blend of soulful melodies and poetic lyrics.</t>
+  </si>
+  <si>
+    <t>influence_param</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,25 +396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.46484375" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.46484375" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,25 +427,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" ht="58">
       <c r="A2">
         <v>0</v>
       </c>
@@ -436,28 +456,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/SimulatorScenarios.xlsx
+++ b/data/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonWorkspace\ABMSimulationTool\ABMSim\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1193408-31A6-4BA7-9E93-1C9A55FCD61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40DDFB-4746-4EAB-822D-00C514A3C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -55,10 +55,19 @@
     <t>infection_prob</t>
   </si>
   <si>
-    <t>Jay Chou's latest song is a mesmerizing blend of soulful melodies and poetic lyrics.</t>
-  </si>
-  <si>
     <t>influence_param</t>
+  </si>
+  <si>
+    <t>Meet your local election candidates: [Candidate 1] focuses on education reform and community safety. [Candidate 2] advocates for sustainable development and environmental initiatives. [Candidate 3] prioritizes small business support and infrastructure improvements. Get informed, attend candidate forums, and choose who aligns with your vision for our community's future. #LocalElections</t>
+  </si>
+  <si>
+    <t>Introducing our latest product: The SmartHome Hub! Seamlessly control all your devices, from lights to thermostats, in one central hub. Enjoy energy savings, convenience, and security. Compatible with popular smart home platforms. Upgrade your home today and experience the future of intelligent living. Available now at authorized retailers.</t>
+  </si>
+  <si>
+    <t>Introducing a novel concept: Shared Skill Spaces. A communal area where diverse talents intersect, fostering collaboration and innovation. Unleash creativity, maximize collective expertise, and elevate the potential of our community. Explore Shared Skill Spaces today!</t>
+  </si>
+  <si>
+    <t>How are you today?</t>
   </si>
 </sst>
 </file>
@@ -74,19 +83,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="9"/>
       <color rgb="FFBCBEC4"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -112,15 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -410,81 +420,187 @@
     <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.453125" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="58">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.01</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K4" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/input/SimulatorScenarios.xlsx
+++ b/data/input/SimulatorScenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonWorkspace\ABMSimulationTool\ABMSim\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemju/Desktop/AI_ML/ABMSim/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40DDFB-4746-4EAB-822D-00C514A3C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDEC6F-950B-0C40-80C8-BD9353BC3279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="0" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -122,15 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,20 +406,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -449,7 +446,7 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -467,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
         <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -484,7 +481,7 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1">
@@ -502,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -519,7 +516,7 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1">
@@ -537,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
         <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -554,7 +551,7 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1">
@@ -572,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
         <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -589,7 +586,7 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="1">

--- a/data/input/SimulatorScenarios.xlsx
+++ b/data/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemju/Desktop/AI_ML/ABMSim/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDEC6F-950B-0C40-80C8-BD9353BC3279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7FCF4-C5A3-0643-AD97-DA3753FADA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="0" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1040" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -467,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>

--- a/data/input/SimulatorScenarios.xlsx
+++ b/data/input/SimulatorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemju/Desktop/AI_ML/ABMSim/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7FCF4-C5A3-0643-AD97-DA3753FADA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4518903F-19A6-3E45-B7F6-EE9F20C0E30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1040" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1040" windowWidth="22400" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>influence_msg</t>
-  </si>
-  <si>
-    <t>infection_prob</t>
   </si>
   <si>
     <t>influence_param</t>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -418,10 +415,11 @@
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,14 +447,11 @@
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -476,22 +471,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -502,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -511,22 +503,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -537,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -546,22 +535,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="2">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -572,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -581,18 +567,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="2">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.2</v>
       </c>
     </row>
